--- a/Part 1/tagged data/original_samples/Jira_Performance_Testing_Tools.xlsx
+++ b/Part 1/tagged data/original_samples/Jira_Performance_Testing_Tools.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/a_t_vancan_uu_nl/Documents/Documents/jira_datasets/Selection projects/Projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/a_t_vancan_uu_nl/Documents/Documents/Information and Software Technology/Appendix IST/Part 1/tagged data/original_samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_4059158B5B20DD8AEC6B1ED04B5ED87656CF2C99" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8CECC5D-EE68-4A17-B147-3EA0B0FAEB35}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_4059158B5B20DD8AEC6B1ED04B5ED87656CF2C99" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DE4CFFF-15FA-43FF-AA73-B7A27EC7A895}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2370" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1452,18 +1452,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1768,13 +1763,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D48" workbookViewId="0">
-      <selection activeCell="E53" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="199.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="81.44140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="64.88671875" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
   </cols>
@@ -1786,7 +1781,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1809,7 +1804,7 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
@@ -1829,7 +1824,7 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
@@ -1839,7 +1834,7 @@
         <v>43614.036249999997</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1226358</v>
       </c>
@@ -1849,7 +1844,7 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
@@ -1859,7 +1854,7 @@
         <v>43609.262800925928</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1226360</v>
       </c>
@@ -1869,7 +1864,7 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
@@ -1879,7 +1874,7 @@
         <v>43608.182951388888</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1226362</v>
       </c>
@@ -1889,7 +1884,7 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
@@ -1912,7 +1907,7 @@
       <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E7" t="s">
@@ -1922,7 +1917,7 @@
         <v>43600.104618055557</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1226369</v>
       </c>
@@ -1932,7 +1927,7 @@
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E8" t="s">
@@ -1942,7 +1937,7 @@
         <v>43593.235914351862</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1226373</v>
       </c>
@@ -1952,7 +1947,7 @@
       <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E9" t="s">
@@ -1962,7 +1957,7 @@
         <v>43587.473391203697</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1226376</v>
       </c>
@@ -1972,7 +1967,7 @@
       <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E10" t="s">
@@ -1982,7 +1977,7 @@
         <v>43581.351423611108</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1226377</v>
       </c>
@@ -1992,7 +1987,7 @@
       <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E11" t="s">
@@ -2002,7 +1997,7 @@
         <v>43580.294108796297</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1226379</v>
       </c>
@@ -2012,7 +2007,7 @@
       <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E12" t="s">
@@ -2022,7 +2017,7 @@
         <v>43579.186469907407</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1226390</v>
       </c>
@@ -2032,7 +2027,7 @@
       <c r="C13" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E13" t="s">
@@ -2055,7 +2050,7 @@
       <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E14" t="s">
@@ -2065,7 +2060,7 @@
         <v>43571.179780092592</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1226392</v>
       </c>
@@ -2075,7 +2070,7 @@
       <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E15" t="s">
@@ -2085,7 +2080,7 @@
         <v>43570.252349537041</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1226393</v>
       </c>
@@ -2095,7 +2090,7 @@
       <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E16" t="s">
@@ -2105,7 +2100,7 @@
         <v>43567.112754629627</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1226395</v>
       </c>
@@ -2115,7 +2110,7 @@
       <c r="C17" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E17" t="s">
@@ -2135,7 +2130,7 @@
       <c r="C18" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E18" t="s">
@@ -2162,7 +2157,7 @@
         <v>43563.14508101852</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1226404</v>
       </c>
@@ -2172,7 +2167,7 @@
       <c r="C20" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E20" t="s">
@@ -2182,7 +2177,7 @@
         <v>43557.400185185194</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1226407</v>
       </c>
@@ -2192,7 +2187,7 @@
       <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E21" t="s">
@@ -2202,7 +2197,7 @@
         <v>43556.235590277778</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1226408</v>
       </c>
@@ -2212,7 +2207,7 @@
       <c r="C22" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>48</v>
       </c>
       <c r="E22" t="s">
@@ -2222,7 +2217,7 @@
         <v>43556.159108796302</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1226410</v>
       </c>
@@ -2232,7 +2227,7 @@
       <c r="C23" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E23" t="s">
@@ -2337,7 +2332,7 @@
       <c r="C29" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E29" t="s">
@@ -2364,7 +2359,7 @@
         <v>43546.287974537037</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>1226422</v>
       </c>
@@ -2374,7 +2369,7 @@
       <c r="C31" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>61</v>
       </c>
       <c r="E31" t="s">
@@ -2401,7 +2396,7 @@
         <v>43539.122870370367</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>1226428</v>
       </c>
@@ -2411,7 +2406,7 @@
       <c r="C33" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>64</v>
       </c>
       <c r="E33" t="s">
@@ -2421,7 +2416,7 @@
         <v>43539.108124999999</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>1226431</v>
       </c>
@@ -2431,7 +2426,7 @@
       <c r="C34" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E34" t="s">
@@ -2458,7 +2453,7 @@
         <v>43532.208391203712</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>1226436</v>
       </c>
@@ -2468,7 +2463,7 @@
       <c r="C36" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E36" t="s">
@@ -2481,7 +2476,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>1226437</v>
       </c>
@@ -2491,7 +2486,7 @@
       <c r="C37" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>71</v>
       </c>
       <c r="E37" t="s">
@@ -2501,7 +2496,7 @@
         <v>43531.215405092589</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>1226440</v>
       </c>
@@ -2511,7 +2506,7 @@
       <c r="C38" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>73</v>
       </c>
       <c r="E38" t="s">
@@ -2531,7 +2526,7 @@
       <c r="C39" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>75</v>
       </c>
       <c r="E39" t="s">
@@ -2558,7 +2553,7 @@
         <v>43524.198217592602</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>1226447</v>
       </c>
@@ -2568,7 +2563,7 @@
       <c r="C41" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E41" t="s">
@@ -2578,7 +2573,7 @@
         <v>43517.280289351853</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>1226449</v>
       </c>
@@ -2588,7 +2583,7 @@
       <c r="C42" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E42" t="s">
@@ -2598,7 +2593,7 @@
         <v>43517.179652777777</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>1226451</v>
       </c>
@@ -2608,7 +2603,7 @@
       <c r="C43" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E43" t="s">
@@ -2618,7 +2613,7 @@
         <v>43508.151666666658</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>1226453</v>
       </c>
@@ -2628,7 +2623,7 @@
       <c r="C44" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E44" t="s">
@@ -2638,7 +2633,7 @@
         <v>43503.696087962962</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>1226460</v>
       </c>
@@ -2648,7 +2643,7 @@
       <c r="C45" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E45" t="s">
@@ -2658,7 +2653,7 @@
         <v>43503.172465277778</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>1226463</v>
       </c>
@@ -2668,7 +2663,7 @@
       <c r="C46" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>88</v>
       </c>
       <c r="E46" t="s">
@@ -2678,7 +2673,7 @@
         <v>43502.319282407407</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>1226468</v>
       </c>
@@ -2688,7 +2683,7 @@
       <c r="C47" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="3" t="s">
         <v>90</v>
       </c>
       <c r="E47" t="s">
@@ -2698,7 +2693,7 @@
         <v>43500.258009259262</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>1226471</v>
       </c>
@@ -2708,7 +2703,7 @@
       <c r="C48" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E48" t="s">
@@ -2721,7 +2716,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>1226474</v>
       </c>
@@ -2731,7 +2726,7 @@
       <c r="C49" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>94</v>
       </c>
       <c r="E49" t="s">
@@ -2741,7 +2736,7 @@
         <v>43495.191712962973</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>1226478</v>
       </c>
@@ -2751,7 +2746,7 @@
       <c r="C50" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="3" t="s">
         <v>96</v>
       </c>
       <c r="E50" t="s">
@@ -2761,7 +2756,7 @@
         <v>43494.326909722222</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>1226480</v>
       </c>
@@ -2771,7 +2766,7 @@
       <c r="C51" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E51" t="s">
@@ -2794,7 +2789,7 @@
       <c r="C52" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="3" t="s">
         <v>100</v>
       </c>
       <c r="E52" t="s">
@@ -2838,7 +2833,7 @@
         <v>43490.063796296286</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>1226492</v>
       </c>
@@ -2848,7 +2843,7 @@
       <c r="C55" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="3" t="s">
         <v>104</v>
       </c>
       <c r="E55" t="s">
@@ -2858,7 +2853,7 @@
         <v>43482.547094907408</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>1226494</v>
       </c>
@@ -2868,7 +2863,7 @@
       <c r="C56" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="3" t="s">
         <v>106</v>
       </c>
       <c r="E56" t="s">
@@ -2895,7 +2890,7 @@
         <v>43476.375115740739</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>1226505</v>
       </c>
@@ -2905,7 +2900,7 @@
       <c r="C58" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="3" t="s">
         <v>109</v>
       </c>
       <c r="E58" t="s">
@@ -2925,7 +2920,7 @@
       <c r="C59" t="s">
         <v>6</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="3" t="s">
         <v>111</v>
       </c>
       <c r="E59" t="s">
@@ -2935,7 +2930,7 @@
         <v>43475.285196759258</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>1226513</v>
       </c>
@@ -2945,7 +2940,7 @@
       <c r="C60" t="s">
         <v>6</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="3" t="s">
         <v>113</v>
       </c>
       <c r="E60" t="s">
@@ -2955,7 +2950,7 @@
         <v>43473.415486111109</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>1226514</v>
       </c>
@@ -2965,7 +2960,7 @@
       <c r="C61" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="3" t="s">
         <v>115</v>
       </c>
       <c r="E61" t="s">
@@ -2985,7 +2980,7 @@
       <c r="C62" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="3" t="s">
         <v>117</v>
       </c>
       <c r="E62" t="s">
@@ -2995,7 +2990,7 @@
         <v>43473.285451388889</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>1226517</v>
       </c>
@@ -3005,7 +3000,7 @@
       <c r="C63" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="3" t="s">
         <v>119</v>
       </c>
       <c r="E63" t="s">
@@ -3025,7 +3020,7 @@
       <c r="C64" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="3" t="s">
         <v>121</v>
       </c>
       <c r="E64" t="s">
@@ -3048,7 +3043,7 @@
       <c r="C65" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="3" t="s">
         <v>123</v>
       </c>
       <c r="E65" t="s">
@@ -3068,7 +3063,7 @@
       <c r="C66" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="3" t="s">
         <v>121</v>
       </c>
       <c r="E66" t="s">
@@ -3108,7 +3103,7 @@
       <c r="C68" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="3" t="s">
         <v>127</v>
       </c>
       <c r="E68" t="s">
@@ -3118,7 +3113,7 @@
         <v>43462.247696759259</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>1226528</v>
       </c>
@@ -3128,7 +3123,7 @@
       <c r="C69" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="3" t="s">
         <v>129</v>
       </c>
       <c r="E69" t="s">
@@ -3148,7 +3143,7 @@
       <c r="C70" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E70" t="s">
@@ -3168,7 +3163,7 @@
       <c r="C71" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="3" t="s">
         <v>133</v>
       </c>
       <c r="E71" t="s">
@@ -3188,7 +3183,7 @@
       <c r="C72" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="3" t="s">
         <v>135</v>
       </c>
       <c r="E72" t="s">
@@ -3215,7 +3210,7 @@
         <v>43461.942476851851</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>1226535</v>
       </c>
@@ -3225,7 +3220,7 @@
       <c r="C74" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="3" t="s">
         <v>138</v>
       </c>
       <c r="E74" t="s">
@@ -3262,7 +3257,7 @@
       <c r="C76" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="3" t="s">
         <v>141</v>
       </c>
       <c r="E76" t="s">
@@ -3282,7 +3277,7 @@
       <c r="C77" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="3" t="s">
         <v>143</v>
       </c>
       <c r="E77" t="s">
@@ -3292,7 +3287,7 @@
         <v>43451.197048611109</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>1226540</v>
       </c>
@@ -3302,7 +3297,7 @@
       <c r="C78" t="s">
         <v>6</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="3" t="s">
         <v>145</v>
       </c>
       <c r="E78" t="s">
@@ -3322,7 +3317,7 @@
       <c r="C79" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="3" t="s">
         <v>147</v>
       </c>
       <c r="E79" t="s">
@@ -3342,7 +3337,7 @@
       <c r="C80" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="3" t="s">
         <v>149</v>
       </c>
       <c r="E80" t="s">
@@ -3352,7 +3347,7 @@
         <v>43447.350578703707</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>1226549</v>
       </c>
@@ -3362,7 +3357,7 @@
       <c r="C81" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="3" t="s">
         <v>151</v>
       </c>
       <c r="E81" t="s">
@@ -3389,7 +3384,7 @@
         <v>43447.202905092592</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>1226554</v>
       </c>
@@ -3399,7 +3394,7 @@
       <c r="C83" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="3" t="s">
         <v>154</v>
       </c>
       <c r="E83" t="s">
@@ -3426,7 +3421,7 @@
         <v>43444.153703703712</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>1226556</v>
       </c>
@@ -3436,7 +3431,7 @@
       <c r="C85" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="3" t="s">
         <v>157</v>
       </c>
       <c r="E85" t="s">
@@ -3446,7 +3441,7 @@
         <v>43444.144421296303</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>1226563</v>
       </c>
@@ -3456,7 +3451,7 @@
       <c r="C86" t="s">
         <v>6</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="3" t="s">
         <v>159</v>
       </c>
       <c r="E86" t="s">
@@ -3466,7 +3461,7 @@
         <v>43440.222893518519</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>1226564</v>
       </c>
@@ -3476,7 +3471,7 @@
       <c r="C87" t="s">
         <v>18</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="3" t="s">
         <v>161</v>
       </c>
       <c r="E87" t="s">
@@ -3486,7 +3481,7 @@
         <v>43440.174178240741</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>1226565</v>
       </c>
@@ -3496,7 +3491,7 @@
       <c r="C88" t="s">
         <v>6</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="3" t="s">
         <v>163</v>
       </c>
       <c r="E88" t="s">
@@ -3506,7 +3501,7 @@
         <v>43439.55060185185</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>1226566</v>
       </c>
@@ -3516,7 +3511,7 @@
       <c r="C89" t="s">
         <v>52</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="3" t="s">
         <v>165</v>
       </c>
       <c r="E89" t="s">
@@ -3529,7 +3524,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>1226568</v>
       </c>
@@ -3539,7 +3534,7 @@
       <c r="C90" t="s">
         <v>52</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D90" s="3" t="s">
         <v>167</v>
       </c>
       <c r="E90" t="s">
@@ -3552,7 +3547,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>1226570</v>
       </c>
@@ -3562,7 +3557,7 @@
       <c r="C91" t="s">
         <v>52</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="3" t="s">
         <v>169</v>
       </c>
       <c r="E91" t="s">
@@ -3575,7 +3570,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>1226573</v>
       </c>
@@ -3585,7 +3580,7 @@
       <c r="C92" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="3" t="s">
         <v>171</v>
       </c>
       <c r="E92" t="s">
@@ -3595,7 +3590,7 @@
         <v>43439.205046296287</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>1226574</v>
       </c>
@@ -3605,7 +3600,7 @@
       <c r="C93" t="s">
         <v>18</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="3" t="s">
         <v>173</v>
       </c>
       <c r="E93" t="s">
@@ -3615,7 +3610,7 @@
         <v>43438.240925925929</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>1226575</v>
       </c>
@@ -3625,7 +3620,7 @@
       <c r="C94" t="s">
         <v>175</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="3" t="s">
         <v>176</v>
       </c>
       <c r="E94" t="s">
@@ -3658,7 +3653,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>1226577</v>
       </c>
@@ -3668,7 +3663,7 @@
       <c r="C96" t="s">
         <v>6</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D96" s="3" t="s">
         <v>179</v>
       </c>
       <c r="E96" t="s">
@@ -3681,7 +3676,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>1226581</v>
       </c>
@@ -3691,7 +3686,7 @@
       <c r="C97" t="s">
         <v>6</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" s="3" t="s">
         <v>181</v>
       </c>
       <c r="E97" t="s">
@@ -3735,7 +3730,7 @@
         <v>43431.364872685182</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>1226584</v>
       </c>
@@ -3745,7 +3740,7 @@
       <c r="C100" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" s="3" t="s">
         <v>185</v>
       </c>
       <c r="E100" t="s">
@@ -3755,7 +3750,7 @@
         <v>43423.433449074073</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>1226586</v>
       </c>
@@ -3765,7 +3760,7 @@
       <c r="C101" t="s">
         <v>6</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" s="3" t="s">
         <v>187</v>
       </c>
       <c r="E101" t="s">
@@ -3778,7 +3773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>1226634</v>
       </c>
@@ -3788,7 +3783,7 @@
       <c r="C102" t="s">
         <v>6</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D102" s="3" t="s">
         <v>189</v>
       </c>
       <c r="E102" t="s">
@@ -3801,7 +3796,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>1226636</v>
       </c>
@@ -3811,7 +3806,7 @@
       <c r="C103" t="s">
         <v>6</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="D103" s="3" t="s">
         <v>191</v>
       </c>
       <c r="E103" t="s">
@@ -3824,7 +3819,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>1226662</v>
       </c>
@@ -3834,7 +3829,7 @@
       <c r="C104" t="s">
         <v>6</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D104" s="3" t="s">
         <v>193</v>
       </c>
       <c r="E104" t="s">
@@ -3867,7 +3862,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>1226866</v>
       </c>
@@ -3877,7 +3872,7 @@
       <c r="C106" t="s">
         <v>175</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="3" t="s">
         <v>196</v>
       </c>
       <c r="E106" t="s">
